--- a/Contoso - Sales - Current Release/Dataverse Data/2 🗺️ Territories for Import.xlsx
+++ b/Contoso - Sales - Current Release/Dataverse Data/2 🗺️ Territories for Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/misewell_microsoft_com/Documents/Documents/GitHub/ContosoBI/Contoso - Sales - Current Release/Dataverse Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_5C942CA798AFC9D1679F30D00B0505722DA67EC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94E4AAF-74D5-42AC-B5AF-58EDF6187AC5}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_5C942CA798AFC9D1679F30D00B0505722DA67EC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85CDF9FF-0452-4812-A023-56C0FC7B1913}"/>
   <bookViews>
-    <workbookView xWindow="47535" yWindow="8085" windowWidth="23085" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="-2610" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Territories" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -278,7 +278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,7 +420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,19 +432,19 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="127" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="63" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
@@ -469,7 +469,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
@@ -477,7 +477,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -485,7 +485,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
@@ -517,9 +517,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>

--- a/Contoso - Sales - Current Release/Dataverse Data/2 🗺️ Territories for Import.xlsx
+++ b/Contoso - Sales - Current Release/Dataverse Data/2 🗺️ Territories for Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/misewell_microsoft_com/Documents/Documents/GitHub/ContosoBI/Contoso - Sales - Current Release/Dataverse Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misewell\Documents\GitHub\ContosoBI\Contoso - Sales - Current Release\Dataverse Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_5C942CA798AFC9D1679F30D00B0505722DA67EC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85CDF9FF-0452-4812-A023-56C0FC7B1913}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92799C43-746C-4EE9-8ACF-816FA5D7BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-2610" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="33180" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Territories" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -420,7 +420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
